--- a/TDSoM_Wideform_Data.xlsx
+++ b/TDSoM_Wideform_Data.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cliff\Dropbox\Shared\_WORK\UChicago\Political_Violence\00_MANUSCRIPT\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cliff\Dropbox\Dropbox\02_UChicago\Dark Side of Morality MS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0440115-3A7B-4398-9043-8B0866A46501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11384"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14427" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSoM_Analysis" sheetId="3" r:id="rId1"/>
     <sheet name="TDSoM_Dataset" sheetId="1" r:id="rId2"/>
-    <sheet name="Dictionary" sheetId="2" r:id="rId3"/>
+    <sheet name="TDSoM_MCS" sheetId="4" r:id="rId3"/>
+    <sheet name="Dictionary" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="363">
   <si>
     <t>Age</t>
   </si>
@@ -968,11 +980,167 @@
   <si>
     <t>Average in-scanner appropriateness ratings for liberal issues.</t>
   </si>
+  <si>
+    <t>RP042</t>
+  </si>
+  <si>
+    <t>RP041</t>
+  </si>
+  <si>
+    <t>RP040</t>
+  </si>
+  <si>
+    <t>RP039</t>
+  </si>
+  <si>
+    <t>RP038</t>
+  </si>
+  <si>
+    <t>RP037</t>
+  </si>
+  <si>
+    <t>RP036</t>
+  </si>
+  <si>
+    <t>RP035</t>
+  </si>
+  <si>
+    <t>RP033</t>
+  </si>
+  <si>
+    <t>RP032</t>
+  </si>
+  <si>
+    <t>RP031</t>
+  </si>
+  <si>
+    <t>RP030</t>
+  </si>
+  <si>
+    <t>RP029</t>
+  </si>
+  <si>
+    <t>RP028</t>
+  </si>
+  <si>
+    <t>RP027</t>
+  </si>
+  <si>
+    <t>RP026</t>
+  </si>
+  <si>
+    <t>RP025</t>
+  </si>
+  <si>
+    <t>RP023</t>
+  </si>
+  <si>
+    <t>RP022</t>
+  </si>
+  <si>
+    <t>RP020</t>
+  </si>
+  <si>
+    <t>RP018</t>
+  </si>
+  <si>
+    <t>RP017</t>
+  </si>
+  <si>
+    <t>RP016</t>
+  </si>
+  <si>
+    <t>RP015</t>
+  </si>
+  <si>
+    <t>RP013</t>
+  </si>
+  <si>
+    <t>RP012</t>
+  </si>
+  <si>
+    <t>RP011</t>
+  </si>
+  <si>
+    <t>RP007</t>
+  </si>
+  <si>
+    <t>RP006</t>
+  </si>
+  <si>
+    <t>RP004</t>
+  </si>
+  <si>
+    <t>RP002</t>
+  </si>
+  <si>
+    <t>RP001</t>
+  </si>
+  <si>
+    <t>welfare</t>
+  </si>
+  <si>
+    <t>socialism</t>
+  </si>
+  <si>
+    <t>pornography</t>
+  </si>
+  <si>
+    <t>pollution</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>globalization</t>
+  </si>
+  <si>
+    <t>gay</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>abortion</t>
+  </si>
+  <si>
+    <t>waterboarding</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>military</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>drone</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>bomb</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -1744,7 +1912,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1947,24 +2115,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1989,6 +2139,25 @@
     <xf numFmtId="0" fontId="17" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2034,32 +2203,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="lightUp"/>
@@ -2365,11 +2509,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3371,7 +3515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CK33"/>
   <sheetViews>
@@ -3380,7 +3524,7 @@
       <selection activeCell="U1" activeCellId="20" sqref="A26:XFD26 A1:A1048576 B1:B1048576 C1:C1048576 D1:D1048576 F1:F1048576 E1:E1048576 G1:G1048576 H1:H1048576 I1:I1048576 J1:J1048576 K1:K1048576 L1:L1048576 M1:M1048576 N1:N1048576 O1:O1048576 P1:P1048576 BL1:BL1048576 Q1:T1048576 Q1 U1:U1048576"/>
       <selection pane="topRight" activeCell="U1" activeCellId="20" sqref="A26:XFD26 A1:A1048576 B1:B1048576 C1:C1048576 D1:D1048576 F1:F1048576 E1:E1048576 G1:G1048576 H1:H1048576 I1:I1048576 J1:J1048576 K1:K1048576 L1:L1048576 M1:M1048576 N1:N1048576 O1:O1048576 P1:P1048576 BL1:BL1048576 Q1:T1048576 Q1 U1:U1048576"/>
       <selection pane="bottomLeft" activeCell="U1" activeCellId="20" sqref="A26:XFD26 A1:A1048576 B1:B1048576 C1:C1048576 D1:D1048576 F1:F1048576 E1:E1048576 G1:G1048576 H1:H1048576 I1:I1048576 J1:J1048576 K1:K1048576 L1:L1048576 M1:M1048576 N1:N1048576 O1:O1048576 P1:P1048576 BL1:BL1048576 Q1:T1048576 Q1 U1:U1048576"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
@@ -13314,7 +13458,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:CV33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CV33">
     <sortCondition ref="A2:A33"/>
   </sortState>
   <conditionalFormatting sqref="AV1:CK33 A1:AT33">
@@ -13338,7 +13482,2188 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59917088-E595-4858-9FEA-E6F50AEC0CB9}">
+  <dimension ref="A1:U33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="84" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="84" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>359</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1" s="84" t="s">
+        <v>357</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>356</v>
+      </c>
+      <c r="I1" s="84" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="84" t="s">
+        <v>354</v>
+      </c>
+      <c r="K1" s="84" t="s">
+        <v>353</v>
+      </c>
+      <c r="L1" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="M1" s="84" t="s">
+        <v>351</v>
+      </c>
+      <c r="N1" s="84" t="s">
+        <v>350</v>
+      </c>
+      <c r="O1" s="84" t="s">
+        <v>349</v>
+      </c>
+      <c r="P1" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q1" s="84" t="s">
+        <v>347</v>
+      </c>
+      <c r="R1" s="84" t="s">
+        <v>346</v>
+      </c>
+      <c r="S1" s="84" t="s">
+        <v>345</v>
+      </c>
+      <c r="T1" s="84" t="s">
+        <v>344</v>
+      </c>
+      <c r="U1" s="84" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8">
+        <v>3</v>
+      </c>
+      <c r="H2" s="8">
+        <v>3</v>
+      </c>
+      <c r="I2" s="8">
+        <v>3</v>
+      </c>
+      <c r="J2" s="8">
+        <v>5</v>
+      </c>
+      <c r="K2" s="8">
+        <v>5</v>
+      </c>
+      <c r="L2" s="8">
+        <v>4</v>
+      </c>
+      <c r="M2" s="8">
+        <v>4</v>
+      </c>
+      <c r="N2" s="8">
+        <v>4</v>
+      </c>
+      <c r="O2" s="8">
+        <v>3</v>
+      </c>
+      <c r="P2" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>3</v>
+      </c>
+      <c r="R2" s="8">
+        <v>4</v>
+      </c>
+      <c r="S2" s="8">
+        <v>3</v>
+      </c>
+      <c r="T2" s="8">
+        <v>3</v>
+      </c>
+      <c r="U2" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8">
+        <v>4</v>
+      </c>
+      <c r="K3" s="8">
+        <v>5</v>
+      </c>
+      <c r="L3" s="8">
+        <v>5</v>
+      </c>
+      <c r="M3" s="8">
+        <v>3</v>
+      </c>
+      <c r="N3" s="8">
+        <v>5</v>
+      </c>
+      <c r="O3" s="8">
+        <v>3</v>
+      </c>
+      <c r="P3" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>3</v>
+      </c>
+      <c r="R3" s="8">
+        <v>4</v>
+      </c>
+      <c r="S3" s="8">
+        <v>2</v>
+      </c>
+      <c r="T3" s="8">
+        <v>5</v>
+      </c>
+      <c r="U3" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8">
+        <v>4</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8">
+        <v>4</v>
+      </c>
+      <c r="K4" s="8">
+        <v>4</v>
+      </c>
+      <c r="L4" s="8">
+        <v>4</v>
+      </c>
+      <c r="M4" s="8">
+        <v>3</v>
+      </c>
+      <c r="N4" s="8">
+        <v>4</v>
+      </c>
+      <c r="O4" s="8">
+        <v>2</v>
+      </c>
+      <c r="P4" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>4</v>
+      </c>
+      <c r="R4" s="8">
+        <v>5</v>
+      </c>
+      <c r="S4" s="8">
+        <v>2</v>
+      </c>
+      <c r="T4" s="8">
+        <v>3</v>
+      </c>
+      <c r="U4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>4</v>
+      </c>
+      <c r="J5" s="8">
+        <v>4</v>
+      </c>
+      <c r="K5" s="8">
+        <v>4</v>
+      </c>
+      <c r="L5" s="8">
+        <v>4</v>
+      </c>
+      <c r="M5" s="8">
+        <v>3</v>
+      </c>
+      <c r="N5" s="8">
+        <v>4</v>
+      </c>
+      <c r="O5" s="8">
+        <v>2</v>
+      </c>
+      <c r="P5" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>4</v>
+      </c>
+      <c r="R5" s="8">
+        <v>4</v>
+      </c>
+      <c r="S5" s="8">
+        <v>2</v>
+      </c>
+      <c r="T5" s="8">
+        <v>5</v>
+      </c>
+      <c r="U5" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8">
+        <v>3</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3</v>
+      </c>
+      <c r="L6" s="8">
+        <v>3</v>
+      </c>
+      <c r="M6" s="8">
+        <v>5</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="8">
+        <v>5</v>
+      </c>
+      <c r="P6" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>4</v>
+      </c>
+      <c r="R6" s="8">
+        <v>3</v>
+      </c>
+      <c r="S6" s="8">
+        <v>1</v>
+      </c>
+      <c r="T6" s="8">
+        <v>3</v>
+      </c>
+      <c r="U6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2</v>
+      </c>
+      <c r="J7" s="8">
+        <v>4</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>5</v>
+      </c>
+      <c r="M7" s="8">
+        <v>3</v>
+      </c>
+      <c r="N7" s="8">
+        <v>5</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1</v>
+      </c>
+      <c r="P7" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>3</v>
+      </c>
+      <c r="R7" s="8">
+        <v>2</v>
+      </c>
+      <c r="S7" s="8">
+        <v>2</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1</v>
+      </c>
+      <c r="U7" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8">
+        <v>5</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>5</v>
+      </c>
+      <c r="M8" s="8">
+        <v>5</v>
+      </c>
+      <c r="N8" s="8">
+        <v>5</v>
+      </c>
+      <c r="O8" s="8">
+        <v>5</v>
+      </c>
+      <c r="P8" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>5</v>
+      </c>
+      <c r="R8" s="8">
+        <v>5</v>
+      </c>
+      <c r="S8" s="8">
+        <v>1</v>
+      </c>
+      <c r="T8" s="8">
+        <v>5</v>
+      </c>
+      <c r="U8" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3</v>
+      </c>
+      <c r="I9" s="8">
+        <v>3</v>
+      </c>
+      <c r="J9" s="8">
+        <v>3</v>
+      </c>
+      <c r="K9" s="8">
+        <v>3</v>
+      </c>
+      <c r="L9" s="8">
+        <v>3</v>
+      </c>
+      <c r="M9" s="8">
+        <v>3</v>
+      </c>
+      <c r="N9" s="8">
+        <v>2</v>
+      </c>
+      <c r="O9" s="8">
+        <v>3</v>
+      </c>
+      <c r="P9" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>2</v>
+      </c>
+      <c r="R9" s="8">
+        <v>3</v>
+      </c>
+      <c r="S9" s="8">
+        <v>2</v>
+      </c>
+      <c r="T9" s="8">
+        <v>3</v>
+      </c>
+      <c r="U9" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4</v>
+      </c>
+      <c r="F10" s="8">
+        <v>5</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3</v>
+      </c>
+      <c r="H10" s="8">
+        <v>5</v>
+      </c>
+      <c r="I10" s="8">
+        <v>5</v>
+      </c>
+      <c r="J10" s="8">
+        <v>5</v>
+      </c>
+      <c r="K10" s="8">
+        <v>4</v>
+      </c>
+      <c r="L10" s="8">
+        <v>4</v>
+      </c>
+      <c r="M10" s="8">
+        <v>5</v>
+      </c>
+      <c r="N10" s="8">
+        <v>5</v>
+      </c>
+      <c r="O10" s="8">
+        <v>4</v>
+      </c>
+      <c r="P10" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>5</v>
+      </c>
+      <c r="R10" s="8">
+        <v>5</v>
+      </c>
+      <c r="S10" s="8">
+        <v>2</v>
+      </c>
+      <c r="T10" s="8">
+        <v>5</v>
+      </c>
+      <c r="U10" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>3</v>
+      </c>
+      <c r="J11" s="8">
+        <v>3</v>
+      </c>
+      <c r="K11" s="8">
+        <v>3</v>
+      </c>
+      <c r="L11" s="8">
+        <v>3</v>
+      </c>
+      <c r="M11" s="8">
+        <v>3</v>
+      </c>
+      <c r="N11" s="8">
+        <v>3</v>
+      </c>
+      <c r="O11" s="8">
+        <v>3</v>
+      </c>
+      <c r="P11" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>4</v>
+      </c>
+      <c r="R11" s="8">
+        <v>4</v>
+      </c>
+      <c r="S11" s="8">
+        <v>2</v>
+      </c>
+      <c r="T11" s="8">
+        <v>1</v>
+      </c>
+      <c r="U11" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="8">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4</v>
+      </c>
+      <c r="H12" s="8">
+        <v>4</v>
+      </c>
+      <c r="I12" s="8">
+        <v>3</v>
+      </c>
+      <c r="J12" s="8">
+        <v>4</v>
+      </c>
+      <c r="K12" s="8">
+        <v>4</v>
+      </c>
+      <c r="L12" s="8">
+        <v>5</v>
+      </c>
+      <c r="M12" s="8">
+        <v>3</v>
+      </c>
+      <c r="N12" s="8">
+        <v>5</v>
+      </c>
+      <c r="O12" s="8">
+        <v>4</v>
+      </c>
+      <c r="P12" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>4</v>
+      </c>
+      <c r="R12" s="8">
+        <v>5</v>
+      </c>
+      <c r="S12" s="8">
+        <v>4</v>
+      </c>
+      <c r="T12" s="8">
+        <v>3</v>
+      </c>
+      <c r="U12" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>3</v>
+      </c>
+      <c r="I13" s="8">
+        <v>3</v>
+      </c>
+      <c r="J13" s="8">
+        <v>2</v>
+      </c>
+      <c r="K13" s="8">
+        <v>2</v>
+      </c>
+      <c r="L13" s="8">
+        <v>5</v>
+      </c>
+      <c r="M13" s="8">
+        <v>3</v>
+      </c>
+      <c r="N13" s="8">
+        <v>5</v>
+      </c>
+      <c r="O13" s="8">
+        <v>5</v>
+      </c>
+      <c r="P13" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>3</v>
+      </c>
+      <c r="R13" s="8">
+        <v>5</v>
+      </c>
+      <c r="S13" s="8">
+        <v>1</v>
+      </c>
+      <c r="T13" s="8">
+        <v>3</v>
+      </c>
+      <c r="U13" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="8">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8">
+        <v>4</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4</v>
+      </c>
+      <c r="F14" s="8">
+        <v>5</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>3</v>
+      </c>
+      <c r="I14" s="8">
+        <v>3</v>
+      </c>
+      <c r="J14" s="8">
+        <v>5</v>
+      </c>
+      <c r="K14" s="8">
+        <v>4</v>
+      </c>
+      <c r="L14" s="8">
+        <v>5</v>
+      </c>
+      <c r="M14" s="8">
+        <v>5</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
+      <c r="O14" s="8">
+        <v>5</v>
+      </c>
+      <c r="P14" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>5</v>
+      </c>
+      <c r="R14" s="8">
+        <v>5</v>
+      </c>
+      <c r="S14" s="8">
+        <v>1</v>
+      </c>
+      <c r="T14" s="8">
+        <v>5</v>
+      </c>
+      <c r="U14" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>3</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8">
+        <v>3</v>
+      </c>
+      <c r="H15" s="8">
+        <v>2</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2</v>
+      </c>
+      <c r="J15" s="8">
+        <v>3</v>
+      </c>
+      <c r="K15" s="8">
+        <v>3</v>
+      </c>
+      <c r="L15" s="8">
+        <v>5</v>
+      </c>
+      <c r="M15" s="8">
+        <v>2</v>
+      </c>
+      <c r="N15" s="8">
+        <v>4</v>
+      </c>
+      <c r="O15" s="8">
+        <v>2</v>
+      </c>
+      <c r="P15" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>3</v>
+      </c>
+      <c r="R15" s="8">
+        <v>3</v>
+      </c>
+      <c r="S15" s="8">
+        <v>3</v>
+      </c>
+      <c r="T15" s="8">
+        <v>2</v>
+      </c>
+      <c r="U15" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B16" s="8">
+        <v>4</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3</v>
+      </c>
+      <c r="G16" s="8">
+        <v>5</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
+        <v>4</v>
+      </c>
+      <c r="J16" s="8">
+        <v>5</v>
+      </c>
+      <c r="K16" s="8">
+        <v>4</v>
+      </c>
+      <c r="L16" s="8">
+        <v>5</v>
+      </c>
+      <c r="M16" s="8">
+        <v>3</v>
+      </c>
+      <c r="N16" s="8">
+        <v>5</v>
+      </c>
+      <c r="O16" s="8">
+        <v>5</v>
+      </c>
+      <c r="P16" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>4</v>
+      </c>
+      <c r="R16" s="8">
+        <v>5</v>
+      </c>
+      <c r="S16" s="8">
+        <v>4</v>
+      </c>
+      <c r="T16" s="8">
+        <v>2</v>
+      </c>
+      <c r="U16" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8">
+        <v>4</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
+        <v>2</v>
+      </c>
+      <c r="J17" s="8">
+        <v>3</v>
+      </c>
+      <c r="K17" s="8">
+        <v>3</v>
+      </c>
+      <c r="L17" s="8">
+        <v>3</v>
+      </c>
+      <c r="M17" s="8">
+        <v>2</v>
+      </c>
+      <c r="N17" s="8">
+        <v>5</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+      <c r="P17" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>4</v>
+      </c>
+      <c r="R17" s="8">
+        <v>5</v>
+      </c>
+      <c r="S17" s="8">
+        <v>1</v>
+      </c>
+      <c r="T17" s="8">
+        <v>1</v>
+      </c>
+      <c r="U17" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3</v>
+      </c>
+      <c r="F18" s="8">
+        <v>5</v>
+      </c>
+      <c r="G18" s="8">
+        <v>5</v>
+      </c>
+      <c r="H18" s="8">
+        <v>2</v>
+      </c>
+      <c r="I18" s="8">
+        <v>5</v>
+      </c>
+      <c r="J18" s="8">
+        <v>5</v>
+      </c>
+      <c r="K18" s="8">
+        <v>5</v>
+      </c>
+      <c r="L18" s="8">
+        <v>3</v>
+      </c>
+      <c r="M18" s="8">
+        <v>2</v>
+      </c>
+      <c r="N18" s="8">
+        <v>5</v>
+      </c>
+      <c r="O18" s="8">
+        <v>3</v>
+      </c>
+      <c r="P18" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>3</v>
+      </c>
+      <c r="R18" s="8">
+        <v>5</v>
+      </c>
+      <c r="S18" s="8">
+        <v>2</v>
+      </c>
+      <c r="T18" s="8">
+        <v>5</v>
+      </c>
+      <c r="U18" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" s="8">
+        <v>4</v>
+      </c>
+      <c r="C19" s="8">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>5</v>
+      </c>
+      <c r="H19" s="8">
+        <v>3</v>
+      </c>
+      <c r="I19" s="8">
+        <v>3</v>
+      </c>
+      <c r="J19" s="8">
+        <v>5</v>
+      </c>
+      <c r="K19" s="8">
+        <v>3</v>
+      </c>
+      <c r="L19" s="8">
+        <v>5</v>
+      </c>
+      <c r="M19" s="8">
+        <v>3</v>
+      </c>
+      <c r="N19" s="8">
+        <v>1</v>
+      </c>
+      <c r="O19" s="8">
+        <v>4</v>
+      </c>
+      <c r="P19" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>1</v>
+      </c>
+      <c r="R19" s="8">
+        <v>4</v>
+      </c>
+      <c r="S19" s="8">
+        <v>1</v>
+      </c>
+      <c r="T19" s="8">
+        <v>3</v>
+      </c>
+      <c r="U19" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" s="8">
+        <v>4</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>3</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8">
+        <v>3</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1</v>
+      </c>
+      <c r="L20" s="8">
+        <v>4</v>
+      </c>
+      <c r="M20" s="8">
+        <v>2</v>
+      </c>
+      <c r="N20" s="8">
+        <v>1</v>
+      </c>
+      <c r="O20" s="8">
+        <v>1</v>
+      </c>
+      <c r="P20" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>1</v>
+      </c>
+      <c r="R20" s="8">
+        <v>3</v>
+      </c>
+      <c r="S20" s="8">
+        <v>3</v>
+      </c>
+      <c r="T20" s="8">
+        <v>1</v>
+      </c>
+      <c r="U20" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" s="8">
+        <v>4</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4</v>
+      </c>
+      <c r="F21" s="8">
+        <v>3</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>3</v>
+      </c>
+      <c r="I21" s="8">
+        <v>5</v>
+      </c>
+      <c r="J21" s="8">
+        <v>3</v>
+      </c>
+      <c r="K21" s="8">
+        <v>2</v>
+      </c>
+      <c r="L21" s="8">
+        <v>5</v>
+      </c>
+      <c r="M21" s="8">
+        <v>3</v>
+      </c>
+      <c r="N21" s="8">
+        <v>3</v>
+      </c>
+      <c r="O21" s="8">
+        <v>4</v>
+      </c>
+      <c r="P21" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>4</v>
+      </c>
+      <c r="R21" s="8">
+        <v>3</v>
+      </c>
+      <c r="S21" s="8">
+        <v>2</v>
+      </c>
+      <c r="T21" s="8">
+        <v>1</v>
+      </c>
+      <c r="U21" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4</v>
+      </c>
+      <c r="D22" s="8">
+        <v>4</v>
+      </c>
+      <c r="E22" s="8">
+        <v>3</v>
+      </c>
+      <c r="F22" s="8">
+        <v>3</v>
+      </c>
+      <c r="G22" s="8">
+        <v>4</v>
+      </c>
+      <c r="H22" s="8">
+        <v>3</v>
+      </c>
+      <c r="I22" s="8">
+        <v>4</v>
+      </c>
+      <c r="J22" s="8">
+        <v>5</v>
+      </c>
+      <c r="K22" s="8">
+        <v>4</v>
+      </c>
+      <c r="L22" s="8">
+        <v>4</v>
+      </c>
+      <c r="M22" s="8">
+        <v>2</v>
+      </c>
+      <c r="N22" s="8">
+        <v>4</v>
+      </c>
+      <c r="O22" s="8">
+        <v>3</v>
+      </c>
+      <c r="P22" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>4</v>
+      </c>
+      <c r="R22" s="8">
+        <v>3</v>
+      </c>
+      <c r="S22" s="8">
+        <v>3</v>
+      </c>
+      <c r="T22" s="8">
+        <v>2</v>
+      </c>
+      <c r="U22" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>3</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2</v>
+      </c>
+      <c r="G23" s="8">
+        <v>4</v>
+      </c>
+      <c r="H23" s="8">
+        <v>2</v>
+      </c>
+      <c r="I23" s="8">
+        <v>4</v>
+      </c>
+      <c r="J23" s="8">
+        <v>2</v>
+      </c>
+      <c r="K23" s="8">
+        <v>2</v>
+      </c>
+      <c r="L23" s="8">
+        <v>5</v>
+      </c>
+      <c r="M23" s="8">
+        <v>2</v>
+      </c>
+      <c r="N23" s="8">
+        <v>5</v>
+      </c>
+      <c r="O23" s="8">
+        <v>2</v>
+      </c>
+      <c r="P23" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>3</v>
+      </c>
+      <c r="R23" s="8">
+        <v>5</v>
+      </c>
+      <c r="S23" s="8">
+        <v>2</v>
+      </c>
+      <c r="T23" s="8">
+        <v>4</v>
+      </c>
+      <c r="U23" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8">
+        <v>4</v>
+      </c>
+      <c r="E24" s="8">
+        <v>3</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3</v>
+      </c>
+      <c r="G24" s="8">
+        <v>5</v>
+      </c>
+      <c r="H24" s="8">
+        <v>3</v>
+      </c>
+      <c r="I24" s="8">
+        <v>3</v>
+      </c>
+      <c r="J24" s="8">
+        <v>5</v>
+      </c>
+      <c r="K24" s="8">
+        <v>3</v>
+      </c>
+      <c r="L24" s="8">
+        <v>5</v>
+      </c>
+      <c r="M24" s="8">
+        <v>3</v>
+      </c>
+      <c r="N24" s="8">
+        <v>5</v>
+      </c>
+      <c r="O24" s="8">
+        <v>3</v>
+      </c>
+      <c r="P24" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>3</v>
+      </c>
+      <c r="R24" s="8">
+        <v>5</v>
+      </c>
+      <c r="S24" s="8">
+        <v>4</v>
+      </c>
+      <c r="T24" s="8">
+        <v>3</v>
+      </c>
+      <c r="U24" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25" s="8">
+        <v>5</v>
+      </c>
+      <c r="C25" s="8">
+        <v>4</v>
+      </c>
+      <c r="D25" s="8">
+        <v>4</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>4</v>
+      </c>
+      <c r="G25" s="8">
+        <v>4</v>
+      </c>
+      <c r="H25" s="8">
+        <v>3</v>
+      </c>
+      <c r="I25" s="8">
+        <v>3</v>
+      </c>
+      <c r="J25" s="8">
+        <v>5</v>
+      </c>
+      <c r="K25" s="8">
+        <v>5</v>
+      </c>
+      <c r="L25" s="8">
+        <v>5</v>
+      </c>
+      <c r="M25" s="8">
+        <v>4</v>
+      </c>
+      <c r="N25" s="8">
+        <v>4</v>
+      </c>
+      <c r="O25" s="8">
+        <v>3</v>
+      </c>
+      <c r="P25" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>3</v>
+      </c>
+      <c r="R25" s="8">
+        <v>5</v>
+      </c>
+      <c r="S25" s="8">
+        <v>2</v>
+      </c>
+      <c r="T25" s="8">
+        <v>3</v>
+      </c>
+      <c r="U25" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" s="8">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8">
+        <v>3</v>
+      </c>
+      <c r="E26" s="8">
+        <v>3</v>
+      </c>
+      <c r="F26" s="8">
+        <v>3</v>
+      </c>
+      <c r="G26" s="8">
+        <v>3</v>
+      </c>
+      <c r="H26" s="8">
+        <v>2</v>
+      </c>
+      <c r="I26" s="8">
+        <v>3</v>
+      </c>
+      <c r="J26" s="8">
+        <v>3</v>
+      </c>
+      <c r="K26" s="8">
+        <v>3</v>
+      </c>
+      <c r="L26" s="8">
+        <v>3</v>
+      </c>
+      <c r="M26" s="8">
+        <v>3</v>
+      </c>
+      <c r="N26" s="8">
+        <v>3</v>
+      </c>
+      <c r="O26" s="8">
+        <v>3</v>
+      </c>
+      <c r="P26" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>3</v>
+      </c>
+      <c r="R26" s="8">
+        <v>3</v>
+      </c>
+      <c r="S26" s="8">
+        <v>3</v>
+      </c>
+      <c r="T26" s="8">
+        <v>3</v>
+      </c>
+      <c r="U26" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B27" s="8">
+        <v>5</v>
+      </c>
+      <c r="C27" s="8">
+        <v>4</v>
+      </c>
+      <c r="D27" s="8">
+        <v>4</v>
+      </c>
+      <c r="E27" s="8">
+        <v>4</v>
+      </c>
+      <c r="F27" s="8">
+        <v>3</v>
+      </c>
+      <c r="G27" s="8">
+        <v>3</v>
+      </c>
+      <c r="H27" s="8">
+        <v>2</v>
+      </c>
+      <c r="I27" s="8">
+        <v>3</v>
+      </c>
+      <c r="J27" s="8">
+        <v>3</v>
+      </c>
+      <c r="K27" s="8">
+        <v>3</v>
+      </c>
+      <c r="L27" s="8">
+        <v>5</v>
+      </c>
+      <c r="M27" s="8">
+        <v>2</v>
+      </c>
+      <c r="N27" s="8">
+        <v>3</v>
+      </c>
+      <c r="O27" s="8">
+        <v>3</v>
+      </c>
+      <c r="P27" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>4</v>
+      </c>
+      <c r="R27" s="8">
+        <v>5</v>
+      </c>
+      <c r="S27" s="8">
+        <v>1</v>
+      </c>
+      <c r="T27" s="8">
+        <v>1</v>
+      </c>
+      <c r="U27" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8">
+        <v>3</v>
+      </c>
+      <c r="D28" s="8">
+        <v>3</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8">
+        <v>4</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8">
+        <v>3</v>
+      </c>
+      <c r="J28" s="8">
+        <v>4</v>
+      </c>
+      <c r="K28" s="8">
+        <v>3</v>
+      </c>
+      <c r="L28" s="8">
+        <v>4</v>
+      </c>
+      <c r="M28" s="8">
+        <v>3</v>
+      </c>
+      <c r="N28" s="8">
+        <v>5</v>
+      </c>
+      <c r="O28" s="8">
+        <v>2</v>
+      </c>
+      <c r="P28" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>3</v>
+      </c>
+      <c r="R28" s="8">
+        <v>3</v>
+      </c>
+      <c r="S28" s="8">
+        <v>2</v>
+      </c>
+      <c r="T28" s="8">
+        <v>2</v>
+      </c>
+      <c r="U28" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8">
+        <v>4</v>
+      </c>
+      <c r="D29" s="8">
+        <v>3</v>
+      </c>
+      <c r="E29" s="8">
+        <v>4</v>
+      </c>
+      <c r="F29" s="8">
+        <v>3</v>
+      </c>
+      <c r="G29" s="8">
+        <v>4</v>
+      </c>
+      <c r="H29" s="8">
+        <v>3</v>
+      </c>
+      <c r="I29" s="8">
+        <v>4</v>
+      </c>
+      <c r="J29" s="8">
+        <v>2</v>
+      </c>
+      <c r="K29" s="8">
+        <v>4</v>
+      </c>
+      <c r="L29" s="8">
+        <v>5</v>
+      </c>
+      <c r="M29" s="8">
+        <v>5</v>
+      </c>
+      <c r="N29" s="8">
+        <v>5</v>
+      </c>
+      <c r="O29" s="8">
+        <v>4</v>
+      </c>
+      <c r="P29" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>5</v>
+      </c>
+      <c r="R29" s="8">
+        <v>3</v>
+      </c>
+      <c r="S29" s="8">
+        <v>1</v>
+      </c>
+      <c r="T29" s="8">
+        <v>3</v>
+      </c>
+      <c r="U29" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B30" s="8">
+        <v>4</v>
+      </c>
+      <c r="C30" s="8">
+        <v>4</v>
+      </c>
+      <c r="D30" s="8">
+        <v>4</v>
+      </c>
+      <c r="E30" s="8">
+        <v>3</v>
+      </c>
+      <c r="F30" s="8">
+        <v>4</v>
+      </c>
+      <c r="G30" s="8">
+        <v>2</v>
+      </c>
+      <c r="H30" s="8">
+        <v>3</v>
+      </c>
+      <c r="I30" s="8">
+        <v>3</v>
+      </c>
+      <c r="J30" s="8">
+        <v>4</v>
+      </c>
+      <c r="K30" s="8">
+        <v>4</v>
+      </c>
+      <c r="L30" s="8">
+        <v>4</v>
+      </c>
+      <c r="M30" s="8">
+        <v>3</v>
+      </c>
+      <c r="N30" s="8">
+        <v>4</v>
+      </c>
+      <c r="O30" s="8">
+        <v>3</v>
+      </c>
+      <c r="P30" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>5</v>
+      </c>
+      <c r="R30" s="8">
+        <v>5</v>
+      </c>
+      <c r="S30" s="8">
+        <v>4</v>
+      </c>
+      <c r="T30" s="8">
+        <v>3</v>
+      </c>
+      <c r="U30" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B31" s="8">
+        <v>3</v>
+      </c>
+      <c r="C31" s="8">
+        <v>4</v>
+      </c>
+      <c r="D31" s="8">
+        <v>3</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8">
+        <v>3</v>
+      </c>
+      <c r="G31" s="8">
+        <v>3</v>
+      </c>
+      <c r="H31" s="8">
+        <v>3</v>
+      </c>
+      <c r="I31" s="8">
+        <v>3</v>
+      </c>
+      <c r="J31" s="8">
+        <v>3</v>
+      </c>
+      <c r="K31" s="8">
+        <v>4</v>
+      </c>
+      <c r="L31" s="8">
+        <v>2</v>
+      </c>
+      <c r="M31" s="8">
+        <v>1</v>
+      </c>
+      <c r="N31" s="8">
+        <v>5</v>
+      </c>
+      <c r="O31" s="8">
+        <v>1</v>
+      </c>
+      <c r="P31" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>3</v>
+      </c>
+      <c r="R31" s="8">
+        <v>4</v>
+      </c>
+      <c r="S31" s="8">
+        <v>1</v>
+      </c>
+      <c r="T31" s="8">
+        <v>3</v>
+      </c>
+      <c r="U31" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B32" s="8">
+        <v>4</v>
+      </c>
+      <c r="C32" s="8">
+        <v>5</v>
+      </c>
+      <c r="D32" s="8">
+        <v>4</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8">
+        <v>3</v>
+      </c>
+      <c r="G32" s="8">
+        <v>2</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8">
+        <v>2</v>
+      </c>
+      <c r="J32" s="8">
+        <v>2</v>
+      </c>
+      <c r="K32" s="8">
+        <v>2</v>
+      </c>
+      <c r="L32" s="8">
+        <v>2</v>
+      </c>
+      <c r="M32" s="8">
+        <v>4</v>
+      </c>
+      <c r="N32" s="8">
+        <v>2</v>
+      </c>
+      <c r="O32" s="8">
+        <v>4</v>
+      </c>
+      <c r="P32" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>4</v>
+      </c>
+      <c r="R32" s="8">
+        <v>2</v>
+      </c>
+      <c r="S32" s="8">
+        <v>1</v>
+      </c>
+      <c r="T32" s="8">
+        <v>4</v>
+      </c>
+      <c r="U32" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B33" s="8">
+        <v>4</v>
+      </c>
+      <c r="C33" s="8">
+        <v>4</v>
+      </c>
+      <c r="D33" s="8">
+        <v>4</v>
+      </c>
+      <c r="E33" s="8">
+        <v>3</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8">
+        <v>2</v>
+      </c>
+      <c r="H33" s="8">
+        <v>3</v>
+      </c>
+      <c r="I33" s="8">
+        <v>4</v>
+      </c>
+      <c r="J33" s="8">
+        <v>3</v>
+      </c>
+      <c r="K33" s="8">
+        <v>4</v>
+      </c>
+      <c r="L33" s="8">
+        <v>4</v>
+      </c>
+      <c r="M33" s="8">
+        <v>5</v>
+      </c>
+      <c r="N33" s="8">
+        <v>5</v>
+      </c>
+      <c r="O33" s="8">
+        <v>3</v>
+      </c>
+      <c r="P33" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>4</v>
+      </c>
+      <c r="R33" s="8">
+        <v>1</v>
+      </c>
+      <c r="S33" s="8">
+        <v>4</v>
+      </c>
+      <c r="T33" s="8">
+        <v>1</v>
+      </c>
+      <c r="U33" s="8">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L16280"/>
   <sheetViews>
@@ -13359,31 +15684,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="71"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="38">
         <v>1</v>
       </c>
@@ -14117,7 +16442,7 @@
       <c r="B31" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="83" t="s">
         <v>187</v>
       </c>
       <c r="D31" s="10" t="s">
@@ -14151,7 +16476,7 @@
       <c r="B32" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="10" t="s">
         <v>159</v>
       </c>
@@ -14501,58 +16826,58 @@
       <c r="L46" s="21"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="80" t="s">
+      <c r="A47" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="75" t="s">
         <v>310</v>
       </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
-      <c r="L47" s="83"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="77"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="76" t="s">
+      <c r="A48" s="70" t="s">
         <v>306</v>
       </c>
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="71" t="s">
         <v>309</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="79"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="73"/>
     </row>
     <row r="49" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="76" t="s">
+      <c r="A49" s="70" t="s">
         <v>307</v>
       </c>
-      <c r="B49" s="77" t="s">
+      <c r="B49" s="71" t="s">
         <v>308</v>
       </c>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="79"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="73"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="57" t="s">
